--- a/natmiOut/OldD7/LR-pairs_lrc2p/Slit2-Sdc1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Slit2-Sdc1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.116234165429755</v>
+        <v>0.1645843333333333</v>
       </c>
       <c r="H2">
-        <v>0.116234165429755</v>
+        <v>0.493753</v>
       </c>
       <c r="I2">
-        <v>0.03110686697858683</v>
+        <v>0.03485847193389392</v>
       </c>
       <c r="J2">
-        <v>0.03110686697858683</v>
+        <v>0.03485847193389392</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.739198525043266</v>
+        <v>1.378475333333333</v>
       </c>
       <c r="N2">
-        <v>0.739198525043266</v>
+        <v>4.135426</v>
       </c>
       <c r="O2">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531157</v>
       </c>
       <c r="P2">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531156</v>
       </c>
       <c r="Q2">
-        <v>0.08592012364530988</v>
+        <v>0.2268754437531111</v>
       </c>
       <c r="R2">
-        <v>0.08592012364530988</v>
+        <v>2.041878993778</v>
       </c>
       <c r="S2">
-        <v>0.0009939724426617264</v>
+        <v>0.001955461129119219</v>
       </c>
       <c r="T2">
-        <v>0.0009939724426617264</v>
+        <v>0.001955461129119219</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.116234165429755</v>
+        <v>0.1645843333333333</v>
       </c>
       <c r="H3">
-        <v>0.116234165429755</v>
+        <v>0.493753</v>
       </c>
       <c r="I3">
-        <v>0.03110686697858683</v>
+        <v>0.03485847193389392</v>
       </c>
       <c r="J3">
-        <v>0.03110686697858683</v>
+        <v>0.03485847193389392</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.1475784915411</v>
+        <v>13.16176133333333</v>
       </c>
       <c r="N3">
-        <v>13.1475784915411</v>
+        <v>39.485284</v>
       </c>
       <c r="O3">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="P3">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="Q3">
-        <v>1.528197813386477</v>
+        <v>2.166219714539111</v>
       </c>
       <c r="R3">
-        <v>1.528197813386477</v>
+        <v>19.495977430852</v>
       </c>
       <c r="S3">
-        <v>0.01767905409113063</v>
+        <v>0.01867085471587039</v>
       </c>
       <c r="T3">
-        <v>0.01767905409113063</v>
+        <v>0.01867085471587039</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.116234165429755</v>
+        <v>0.1645843333333333</v>
       </c>
       <c r="H4">
-        <v>0.116234165429755</v>
+        <v>0.493753</v>
       </c>
       <c r="I4">
-        <v>0.03110686697858683</v>
+        <v>0.03485847193389392</v>
       </c>
       <c r="J4">
-        <v>0.03110686697858683</v>
+        <v>0.03485847193389392</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7157609761489629</v>
+        <v>0.829094</v>
       </c>
       <c r="N4">
-        <v>0.7157609761489629</v>
+        <v>2.487282</v>
       </c>
       <c r="O4">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190829</v>
       </c>
       <c r="P4">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190828</v>
       </c>
       <c r="Q4">
-        <v>0.08319587970986148</v>
+        <v>0.1364558832606667</v>
       </c>
       <c r="R4">
-        <v>0.08319587970986148</v>
+        <v>1.228102949346</v>
       </c>
       <c r="S4">
-        <v>0.0009624568525526814</v>
+        <v>0.001176126297062965</v>
       </c>
       <c r="T4">
-        <v>0.0009624568525526814</v>
+        <v>0.001176126297062965</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.116234165429755</v>
+        <v>0.1645843333333333</v>
       </c>
       <c r="H5">
-        <v>0.116234165429755</v>
+        <v>0.493753</v>
       </c>
       <c r="I5">
-        <v>0.03110686697858683</v>
+        <v>0.03485847193389392</v>
       </c>
       <c r="J5">
-        <v>0.03110686697858683</v>
+        <v>0.03485847193389392</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.53105123204757</v>
+        <v>9.203668</v>
       </c>
       <c r="N5">
-        <v>8.53105123204757</v>
+        <v>27.611004</v>
       </c>
       <c r="O5">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528278</v>
       </c>
       <c r="P5">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528276</v>
       </c>
       <c r="Q5">
-        <v>0.9915996201955325</v>
+        <v>1.514779562001333</v>
       </c>
       <c r="R5">
-        <v>0.9915996201955325</v>
+        <v>13.633016058012</v>
       </c>
       <c r="S5">
-        <v>0.01147138359224179</v>
+        <v>0.01305602979184134</v>
       </c>
       <c r="T5">
-        <v>0.01147138359224179</v>
+        <v>0.01305602979184134</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.21809165958846</v>
+        <v>3.368329</v>
       </c>
       <c r="H6">
-        <v>3.21809165958846</v>
+        <v>10.104987</v>
       </c>
       <c r="I6">
-        <v>0.8612334317504547</v>
+        <v>0.7134020567608963</v>
       </c>
       <c r="J6">
-        <v>0.8612334317504547</v>
+        <v>0.7134020567608964</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.739198525043266</v>
+        <v>1.378475333333333</v>
       </c>
       <c r="N6">
-        <v>0.739198525043266</v>
+        <v>4.135426</v>
       </c>
       <c r="O6">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531157</v>
       </c>
       <c r="P6">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531156</v>
       </c>
       <c r="Q6">
-        <v>2.378808608221826</v>
+        <v>4.643158441051333</v>
       </c>
       <c r="R6">
-        <v>2.378808608221826</v>
+        <v>41.788425969462</v>
       </c>
       <c r="S6">
-        <v>0.02751939944476627</v>
+        <v>0.0400198262871416</v>
       </c>
       <c r="T6">
-        <v>0.02751939944476627</v>
+        <v>0.0400198262871416</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.21809165958846</v>
+        <v>3.368329</v>
       </c>
       <c r="H7">
-        <v>3.21809165958846</v>
+        <v>10.104987</v>
       </c>
       <c r="I7">
-        <v>0.8612334317504547</v>
+        <v>0.7134020567608963</v>
       </c>
       <c r="J7">
-        <v>0.8612334317504547</v>
+        <v>0.7134020567608964</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.1475784915411</v>
+        <v>13.16176133333333</v>
       </c>
       <c r="N7">
-        <v>13.1475784915411</v>
+        <v>39.485284</v>
       </c>
       <c r="O7">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="P7">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="Q7">
-        <v>42.31011268741305</v>
+        <v>44.33314239014533</v>
       </c>
       <c r="R7">
-        <v>42.31011268741305</v>
+        <v>398.998281511308</v>
       </c>
       <c r="S7">
-        <v>0.4894672432131271</v>
+        <v>0.382111590578202</v>
       </c>
       <c r="T7">
-        <v>0.4894672432131271</v>
+        <v>0.382111590578202</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.21809165958846</v>
+        <v>3.368329</v>
       </c>
       <c r="H8">
-        <v>3.21809165958846</v>
+        <v>10.104987</v>
       </c>
       <c r="I8">
-        <v>0.8612334317504547</v>
+        <v>0.7134020567608963</v>
       </c>
       <c r="J8">
-        <v>0.8612334317504547</v>
+        <v>0.7134020567608964</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7157609761489629</v>
+        <v>0.829094</v>
       </c>
       <c r="N8">
-        <v>0.7157609761489629</v>
+        <v>2.487282</v>
       </c>
       <c r="O8">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190829</v>
       </c>
       <c r="P8">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190828</v>
       </c>
       <c r="Q8">
-        <v>2.303384427603872</v>
+        <v>2.792661363926</v>
       </c>
       <c r="R8">
-        <v>2.303384427603872</v>
+        <v>25.133952275334</v>
       </c>
       <c r="S8">
-        <v>0.02664684998994855</v>
+        <v>0.0240702151524738</v>
       </c>
       <c r="T8">
-        <v>0.02664684998994855</v>
+        <v>0.0240702151524738</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.21809165958846</v>
+        <v>3.368329</v>
       </c>
       <c r="H9">
-        <v>3.21809165958846</v>
+        <v>10.104987</v>
       </c>
       <c r="I9">
-        <v>0.8612334317504547</v>
+        <v>0.7134020567608963</v>
       </c>
       <c r="J9">
-        <v>0.8612334317504547</v>
+        <v>0.7134020567608964</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.53105123204757</v>
+        <v>9.203668</v>
       </c>
       <c r="N9">
-        <v>8.53105123204757</v>
+        <v>27.611004</v>
       </c>
       <c r="O9">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528278</v>
       </c>
       <c r="P9">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528276</v>
       </c>
       <c r="Q9">
-        <v>27.45370481737414</v>
+        <v>31.000981830772</v>
       </c>
       <c r="R9">
-        <v>27.45370481737414</v>
+        <v>279.008836476948</v>
       </c>
       <c r="S9">
-        <v>0.3175999391026129</v>
+        <v>0.267200424743079</v>
       </c>
       <c r="T9">
-        <v>0.3175999391026129</v>
+        <v>0.2672004247430789</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.402282092126498</v>
+        <v>1.188588333333333</v>
       </c>
       <c r="H10">
-        <v>0.402282092126498</v>
+        <v>3.565765</v>
       </c>
       <c r="I10">
-        <v>0.1076597012709584</v>
+        <v>0.2517394713052097</v>
       </c>
       <c r="J10">
-        <v>0.1076597012709584</v>
+        <v>0.2517394713052098</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.739198525043266</v>
+        <v>1.378475333333333</v>
       </c>
       <c r="N10">
-        <v>0.739198525043266</v>
+        <v>4.135426</v>
       </c>
       <c r="O10">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531157</v>
       </c>
       <c r="P10">
-        <v>0.031953473274758</v>
+        <v>0.05609715574531156</v>
       </c>
       <c r="Q10">
-        <v>0.2973663291512266</v>
+        <v>1.638439698987778</v>
       </c>
       <c r="R10">
-        <v>0.2973663291512266</v>
+        <v>14.74595729089</v>
       </c>
       <c r="S10">
-        <v>0.00344010138733</v>
+        <v>0.01412186832905074</v>
       </c>
       <c r="T10">
-        <v>0.00344010138733</v>
+        <v>0.01412186832905074</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.402282092126498</v>
+        <v>1.188588333333333</v>
       </c>
       <c r="H11">
-        <v>0.402282092126498</v>
+        <v>3.565765</v>
       </c>
       <c r="I11">
-        <v>0.1076597012709584</v>
+        <v>0.2517394713052097</v>
       </c>
       <c r="J11">
-        <v>0.1076597012709584</v>
+        <v>0.2517394713052098</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.1475784915411</v>
+        <v>13.16176133333333</v>
       </c>
       <c r="N11">
-        <v>13.1475784915411</v>
+        <v>39.485284</v>
       </c>
       <c r="O11">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="P11">
-        <v>0.5683328412115705</v>
+        <v>0.5356188518899525</v>
       </c>
       <c r="Q11">
-        <v>5.289035381974501</v>
+        <v>15.64391596691778</v>
       </c>
       <c r="R11">
-        <v>5.289035381974501</v>
+        <v>140.79524370226</v>
       </c>
       <c r="S11">
-        <v>0.06118654390731273</v>
+        <v>0.1348364065958801</v>
       </c>
       <c r="T11">
-        <v>0.06118654390731273</v>
+        <v>0.1348364065958801</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.402282092126498</v>
+        <v>1.188588333333333</v>
       </c>
       <c r="H12">
-        <v>0.402282092126498</v>
+        <v>3.565765</v>
       </c>
       <c r="I12">
-        <v>0.1076597012709584</v>
+        <v>0.2517394713052097</v>
       </c>
       <c r="J12">
-        <v>0.1076597012709584</v>
+        <v>0.2517394713052098</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7157609761489629</v>
+        <v>0.829094</v>
       </c>
       <c r="N12">
-        <v>0.7157609761489629</v>
+        <v>2.487282</v>
       </c>
       <c r="O12">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190829</v>
       </c>
       <c r="P12">
-        <v>0.03094033395311756</v>
+        <v>0.03374004171190828</v>
       </c>
       <c r="Q12">
-        <v>0.2879378229477093</v>
+        <v>0.9854514556366667</v>
       </c>
       <c r="R12">
-        <v>0.2879378229477093</v>
+        <v>8.869063100729999</v>
       </c>
       <c r="S12">
-        <v>0.003331027110616328</v>
+        <v>0.008493700262371517</v>
       </c>
       <c r="T12">
-        <v>0.003331027110616328</v>
+        <v>0.008493700262371517</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.402282092126498</v>
+        <v>1.188588333333333</v>
       </c>
       <c r="H13">
-        <v>0.402282092126498</v>
+        <v>3.565765</v>
       </c>
       <c r="I13">
-        <v>0.1076597012709584</v>
+        <v>0.2517394713052097</v>
       </c>
       <c r="J13">
-        <v>0.1076597012709584</v>
+        <v>0.2517394713052098</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.53105123204757</v>
+        <v>9.203668</v>
       </c>
       <c r="N13">
-        <v>8.53105123204757</v>
+        <v>27.611004</v>
       </c>
       <c r="O13">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528278</v>
       </c>
       <c r="P13">
-        <v>0.368773351560554</v>
+        <v>0.3745439506528276</v>
       </c>
       <c r="Q13">
-        <v>3.431889137666435</v>
+        <v>10.93937240867333</v>
       </c>
       <c r="R13">
-        <v>3.431889137666435</v>
+        <v>98.45435167806001</v>
       </c>
       <c r="S13">
-        <v>0.03970202886569938</v>
+        <v>0.09428749611790742</v>
       </c>
       <c r="T13">
-        <v>0.03970202886569938</v>
+        <v>0.09428749611790742</v>
       </c>
     </row>
   </sheetData>
